--- a/Stocks/TATASTEEL.xlsx
+++ b/Stocks/TATASTEEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>447.13333333333338</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>567.54280212297715</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>558.09804028304575</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>59.369177662955188</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.2999999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>8.2999999999999545</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.27710843373493582</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>550.63458649390793</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>10.409066793584316</v>
       </c>
       <c r="Y67">
         <v>11.725167073755333</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>640.15</v>
+      </c>
+      <c r="D83">
+        <v>642.9</v>
+      </c>
+      <c r="E83">
+        <v>631.79999999999995</v>
+      </c>
+      <c r="F83">
+        <v>634.75</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>636.48333333333323</v>
+      </c>
+      <c r="H83">
+        <v>634.05575296227198</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>633.49045132129243</v>
+      </c>
+      <c r="K83">
+        <v>619.51078812397543</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>66.757420182927191</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>2.9500000000000455</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>11.100000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.26576576576576932</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>620.96773549055911</v>
+      </c>
+      <c r="W83">
+        <v>599.88137632700978</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>21.086359163549332</v>
+      </c>
+      <c r="Y83">
+        <v>20.141669267803657</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>635.5</v>
+      </c>
+      <c r="D84">
+        <v>640.45000000000005</v>
+      </c>
+      <c r="E84">
+        <v>627.95000000000005</v>
+      </c>
+      <c r="F84">
+        <v>629.65</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>632.68333333333339</v>
+      </c>
+      <c r="H84">
+        <v>633.36954314780269</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>635.0370176943386</v>
+      </c>
+      <c r="K84">
+        <v>621.38616854086979</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>55.934386289327989</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999318</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.13599999999999454</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>622.30346849201158</v>
+      </c>
+      <c r="W84">
+        <v>602.08645956204612</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>20.217008929965459</v>
+      </c>
+      <c r="Y84">
+        <v>20.156737200236016</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>635</v>
+      </c>
+      <c r="D85">
+        <v>641.4</v>
+      </c>
+      <c r="E85">
+        <v>634.1</v>
+      </c>
+      <c r="F85">
+        <v>637.6</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>637.69999999999993</v>
+      </c>
+      <c r="H85">
+        <v>635.53477157390125</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>636.4510137622633</v>
+      </c>
+      <c r="K85">
+        <v>624.21146442067652</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>66.51307260493229</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>7.2999999999999545</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.47945205479452352</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>624.65678103170205</v>
+      </c>
+      <c r="W85">
+        <v>604.71709218707974</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>19.93968884462231</v>
+      </c>
+      <c r="Y85">
+        <v>20.113327529113274</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>636.95000000000005</v>
+      </c>
+      <c r="D86">
+        <v>643</v>
+      </c>
+      <c r="E86">
+        <v>632.20000000000005</v>
+      </c>
+      <c r="F86">
+        <v>638</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>637.73333333333335</v>
+      </c>
+      <c r="H86">
+        <v>636.6340524536173</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>637.90634403731588</v>
+      </c>
+      <c r="K86">
+        <v>625.98669454941512</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>67.011155803035592</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>5.7999999999999545</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>10.799999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.53703703703703509</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>626.70958394990168</v>
+      </c>
+      <c r="W86">
+        <v>607.18249276581457</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>19.527091184087112</v>
+      </c>
+      <c r="Y86">
+        <v>19.996080260108041</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>639.95000000000005</v>
+      </c>
+      <c r="D87">
+        <v>652.75</v>
+      </c>
+      <c r="E87">
+        <v>639.04999999999995</v>
+      </c>
+      <c r="F87">
+        <v>650.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>647.56666666666661</v>
+      </c>
+      <c r="H87">
+        <v>642.1003595601419</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>641.20493425124573</v>
+      </c>
+      <c r="K87">
+        <v>628.88965131621171</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>79.376900226419195</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>11.850000000000023</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>13.700000000000045</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.86496350364963381</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>630.43118641914759</v>
+      </c>
+      <c r="W87">
+        <v>610.42082663501344</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>20.010359784134153</v>
+      </c>
+      <c r="Y87">
+        <v>19.998936164913264</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>640.6</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>644.30000000000007</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>645.90000000000009</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>647.5</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>651</v>
+      </c>
+      <c r="D88">
+        <v>651.70000000000005</v>
+      </c>
+      <c r="E88">
+        <v>641.5</v>
+      </c>
+      <c r="F88">
+        <v>646.75</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>646.65</v>
+      </c>
+      <c r="H88">
+        <v>644.37517978007099</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>643.53717108430226</v>
+      </c>
+      <c r="K88">
+        <v>631.69195102372021</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>68.979149508395039</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>5.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>10.200000000000045</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.5147058823529389</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>632.94177312389411</v>
+      </c>
+      <c r="W88">
+        <v>613.11187651390128</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>19.829896609992829</v>
+      </c>
+      <c r="Y88">
+        <v>19.965128253929176</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>647.65</v>
+      </c>
+      <c r="D89">
+        <v>654.45000000000005</v>
+      </c>
+      <c r="E89">
+        <v>647.25</v>
+      </c>
+      <c r="F89">
+        <v>652.04999999999995</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>651.25</v>
+      </c>
+      <c r="H89">
+        <v>647.8125898900355</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>645.96224417667952</v>
+      </c>
+      <c r="K89">
+        <v>635.14929524067122</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>74.344146869867728</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.7999999999999545</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>7.2000000000000455</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.66666666666665619</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>635.88150033560271</v>
+      </c>
+      <c r="W89">
+        <v>615.99618195731603</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>19.885318378286684</v>
+      </c>
+      <c r="Y89">
+        <v>19.949166278800678</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>647.1</v>
+      </c>
+      <c r="D90">
+        <v>656.1</v>
+      </c>
+      <c r="E90">
+        <v>645.5</v>
+      </c>
+      <c r="F90">
+        <v>653.70000000000005</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>651.76666666666665</v>
+      </c>
+      <c r="H90">
+        <v>649.78962827835107</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>648.2150788040841</v>
+      </c>
+      <c r="K90">
+        <v>637.44945185385541</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>75.961976046299654</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>8.2000000000000455</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>10.600000000000023</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.77358490566037996</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>638.6228079762792</v>
+      </c>
+      <c r="W90">
+        <v>618.78905736788522</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>19.833750608393984</v>
+      </c>
+      <c r="Y90">
+        <v>19.926083144719339</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>657</v>
+      </c>
+      <c r="D91">
+        <v>657</v>
+      </c>
+      <c r="E91">
+        <v>650.29999999999995</v>
+      </c>
+      <c r="F91">
+        <v>652.85</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>653.38333333333333</v>
+      </c>
+      <c r="H91">
+        <v>651.58648080584226</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>650.16728351428765</v>
+      </c>
+      <c r="K91">
+        <v>640.30512921966533</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>72.997819838701375</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.5500000000000682</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>6.7000000000000455</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.38059701492538073</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>640.8116067491593</v>
+      </c>
+      <c r="W91">
+        <v>621.31209015544925</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>19.499516593710041</v>
+      </c>
+      <c r="Y91">
+        <v>19.840769834517481</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>654.1</v>
+      </c>
+      <c r="D92">
+        <v>663.7</v>
+      </c>
+      <c r="E92">
+        <v>651.85</v>
+      </c>
+      <c r="F92">
+        <v>652.25</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>655.93333333333339</v>
+      </c>
+      <c r="H92">
+        <v>653.75990706958783</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>653.174553844446</v>
+      </c>
+      <c r="K92">
+        <v>642.87065605973976</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>70.568103269965349</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>11.850000000000023</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>3.3755274261601395E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>642.57135955698095</v>
+      </c>
+      <c r="W92">
+        <v>623.60378718097149</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>18.967572376009457</v>
+      </c>
+      <c r="Y92">
+        <v>19.666130342815876</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>657</v>
+      </c>
+      <c r="D93">
+        <v>663.85</v>
+      </c>
+      <c r="E93">
+        <v>652.6</v>
+      </c>
+      <c r="F93">
+        <v>663</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>659.81666666666672</v>
+      </c>
+      <c r="H93">
+        <v>656.78828686812722</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>655.54687521234689</v>
+      </c>
+      <c r="K93">
+        <v>645.03273249090876</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>83.137839614845461</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>10.399999999999977</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>11.25</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.9244444444444424</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>645.71422731744542</v>
+      </c>
+      <c r="W93">
+        <v>626.5220251675662</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>19.192202149879222</v>
+      </c>
+      <c r="Y93">
+        <v>19.571344704228544</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>675</v>
+      </c>
+      <c r="D94">
+        <v>693</v>
+      </c>
+      <c r="E94">
+        <v>674.5</v>
+      </c>
+      <c r="F94">
+        <v>680.9</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>682.80000000000007</v>
+      </c>
+      <c r="H94">
+        <v>669.7941434340637</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>663.86979183182541</v>
+      </c>
+      <c r="K94">
+        <v>651.58101415959572</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>91.073119198169877</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>6.3999999999999773</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>18.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.34594594594594474</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>651.12742311476154</v>
+      </c>
+      <c r="W94">
+        <v>630.55002330330205</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>20.577399811459486</v>
+      </c>
+      <c r="Y94">
+        <v>19.772555725674732</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>681.75</v>
+      </c>
+      <c r="D95">
+        <v>683.8</v>
+      </c>
+      <c r="E95">
+        <v>675.65</v>
+      </c>
+      <c r="F95">
+        <v>681.25</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>680.23333333333323</v>
+      </c>
+      <c r="H95">
+        <v>675.01373838369841</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>668.29872698030863</v>
+      </c>
+      <c r="K95">
+        <v>656.9296776796856</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>91.174628776953639</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>5.6000000000000227</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.68711656441718261</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>655.76166571249053</v>
+      </c>
+      <c r="W95">
+        <v>634.30557713268706</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>21.456088579803463</v>
+      </c>
+      <c r="Y95">
+        <v>20.109262296500479</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>679.5</v>
+      </c>
+      <c r="D96">
+        <v>683.65</v>
+      </c>
+      <c r="E96">
+        <v>672.1</v>
+      </c>
+      <c r="F96">
+        <v>677.7</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>677.81666666666672</v>
+      </c>
+      <c r="H96">
+        <v>676.41520252518262</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>671.71012098468452</v>
+      </c>
+      <c r="K96">
+        <v>660.30086041753327</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>79.686197861065168</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>5.6000000000000227</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>11.549999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.48484848484848875</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>659.13679406441508</v>
+      </c>
+      <c r="W96">
+        <v>637.51997882656212</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>21.616815237852961</v>
+      </c>
+      <c r="Y96">
+        <v>20.410772884770974</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>676</v>
+      </c>
+      <c r="D97">
+        <v>681.4</v>
+      </c>
+      <c r="E97">
+        <v>671.55</v>
+      </c>
+      <c r="F97">
+        <v>677</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>676.65</v>
+      </c>
+      <c r="H97">
+        <v>676.53260126259124</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>673.86342743253238</v>
+      </c>
+      <c r="K97">
+        <v>662.80066921363698</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>77.285891724536924</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>5.4500000000000455</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>9.8500000000000227</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.55329949238579013</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>661.8849795929666</v>
+      </c>
+      <c r="W97">
+        <v>640.44442483940941</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>21.440554753557194</v>
+      </c>
+      <c r="Y97">
+        <v>20.616729258528217</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>676</v>
+      </c>
+      <c r="D98">
+        <v>683</v>
+      </c>
+      <c r="E98">
+        <v>671.1</v>
+      </c>
+      <c r="F98">
+        <v>671.55</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>675.21666666666658</v>
+      </c>
+      <c r="H98">
+        <v>675.87463396462886</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>675.89377689196965</v>
+      </c>
+      <c r="K98">
+        <v>664.64496494393984</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>59.765538981806351</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.44999999999993179</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>11.899999999999977</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>3.781512605041451E-2</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>663.37190580943331</v>
+      </c>
+      <c r="W98">
+        <v>642.74854151797172</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>20.623364291461598</v>
+      </c>
+      <c r="Y98">
+        <v>20.618056265114895</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>673.7</v>
+      </c>
+      <c r="D99">
+        <v>681.35</v>
+      </c>
+      <c r="E99">
+        <v>673</v>
+      </c>
+      <c r="F99">
+        <v>676.65</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>677</v>
+      </c>
+      <c r="H99">
+        <v>676.43731698231443</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>677.10627091597644</v>
+      </c>
+      <c r="K99">
+        <v>666.50163940084212</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>68.198405192070126</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>3.6499999999999773</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>8.3500000000000227</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.43712574850299007</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>665.41468953105891</v>
+      </c>
+      <c r="W99">
+        <v>645.25976066478859</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>20.154928866270325</v>
+      </c>
+      <c r="Y99">
+        <v>20.525430785345982</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>676.2</v>
+      </c>
+      <c r="D100">
+        <v>691.8</v>
+      </c>
+      <c r="E100">
+        <v>674.45</v>
+      </c>
+      <c r="F100">
+        <v>687.45</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>684.56666666666661</v>
+      </c>
+      <c r="H100">
+        <v>680.50199182449046</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>680.37154404575949</v>
+      </c>
+      <c r="K100">
+        <v>668.26794175621058</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>79.546252861928608</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>17.349999999999909</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.74927953890490306</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>668.80473729551136</v>
+      </c>
+      <c r="W100">
+        <v>648.38496357850795</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>20.419773717003409</v>
+      </c>
+      <c r="Y100">
+        <v>20.504299371677469</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>693.8</v>
+      </c>
+      <c r="D101">
+        <v>696.25</v>
+      </c>
+      <c r="E101">
+        <v>681.2</v>
+      </c>
+      <c r="F101">
+        <v>686.35</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>687.93333333333339</v>
+      </c>
+      <c r="H101">
+        <v>684.21766257891193</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>683.90008981336848</v>
+      </c>
+      <c r="K101">
+        <v>671.14173247705264</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>76.089500461623913</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>5.1499999999999773</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>15.049999999999955</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.34219269102989985</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>671.50400848081733</v>
+      </c>
+      <c r="W101">
+        <v>651.19718849861852</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>20.306819982198817</v>
+      </c>
+      <c r="Y101">
+        <v>20.464803493781737</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>684</v>
+      </c>
+      <c r="D102">
+        <v>684</v>
+      </c>
+      <c r="E102">
+        <v>651</v>
+      </c>
+      <c r="F102">
+        <v>654.4</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>663.13333333333333</v>
+      </c>
+      <c r="H102">
+        <v>673.67549795612263</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>683.92229207706441</v>
+      </c>
+      <c r="K102">
+        <v>666.66579192659651</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>29.517857103828998</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>33</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.10303030303030235</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>668.87262256069164</v>
+      </c>
+      <c r="W102">
+        <v>651.43443379501718</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>17.438188765674454</v>
+      </c>
+      <c r="Y102">
+        <v>19.859480548160281</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>655</v>
+      </c>
+      <c r="D103">
+        <v>655.20000000000005</v>
+      </c>
+      <c r="E103">
+        <v>623.1</v>
+      </c>
+      <c r="F103">
+        <v>642.29999999999995</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>640.20000000000005</v>
+      </c>
+      <c r="H103">
+        <v>656.93774897806134</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>677.53956050438342</v>
+      </c>
+      <c r="K103">
+        <v>656.98450483179727</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>22.886519924905958</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>19.199999999999932</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>32.100000000000023</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.59813084112149273</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>664.78452678212363</v>
+      </c>
+      <c r="W103">
+        <v>650.75780906946034</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>14.026717712663299</v>
+      </c>
+      <c r="Y103">
+        <v>18.692927981060883</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>642.5</v>
+      </c>
+      <c r="D104">
+        <v>657</v>
+      </c>
+      <c r="E104">
+        <v>638.85</v>
+      </c>
+      <c r="F104">
+        <v>655</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>650.2833333333333</v>
+      </c>
+      <c r="H104">
+        <v>653.61054115569732</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>672.97521372563153</v>
+      </c>
+      <c r="K104">
+        <v>652.95461486917566</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>40.441127204250904</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>16.149999999999977</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>18.149999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.88980716253443515</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>663.2792149694892</v>
+      </c>
+      <c r="W104">
+        <v>651.07204543468549</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>12.207169534803711</v>
+      </c>
+      <c r="Y104">
+        <v>17.395776291809447</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>660</v>
+      </c>
+      <c r="D105">
+        <v>660</v>
+      </c>
+      <c r="E105">
+        <v>643.04999999999995</v>
+      </c>
+      <c r="F105">
+        <v>650</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>651.01666666666665</v>
+      </c>
+      <c r="H105">
+        <v>652.31360391118199</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>670.0918328977134</v>
+      </c>
+      <c r="K105">
+        <v>650.75358934269218</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>36.366915610013663</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>6.9500000000000455</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>16.950000000000045</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.41002949852507531</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>661.23625882033707</v>
+      </c>
+      <c r="W105">
+        <v>650.9926346617458</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>10.243624158591274</v>
+      </c>
+      <c r="Y105">
+        <v>15.965345865165812</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>652.9</v>
+      </c>
+      <c r="D106">
+        <v>656.5</v>
+      </c>
+      <c r="E106">
+        <v>642.65</v>
+      </c>
+      <c r="F106">
+        <v>648.25</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>649.13333333333333</v>
+      </c>
+      <c r="H106">
+        <v>650.72346862225766</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>667.07142558711041</v>
+      </c>
+      <c r="K106">
+        <v>648.95279171098275</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>34.831687543130855</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>5.6000000000000227</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>13.850000000000023</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.40433212996389989</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>659.23837284797753</v>
+      </c>
+      <c r="W106">
+        <v>650.7894765386535</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>8.4488963093240272</v>
+      </c>
+      <c r="Y106">
+        <v>14.462055953997455</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>654.79999999999995</v>
+      </c>
+      <c r="D107">
+        <v>657</v>
+      </c>
+      <c r="E107">
+        <v>650.04999999999995</v>
+      </c>
+      <c r="F107">
+        <v>652.5</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>653.18333333333328</v>
+      </c>
+      <c r="H107">
+        <v>651.95340097779547</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>664.83333101219694</v>
+      </c>
+      <c r="K107">
+        <v>649.19661577520878</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>42.234486656321678</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>2.4500000000000455</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>6.9500000000000455</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.35251798561151504</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>658.20170010213485</v>
+      </c>
+      <c r="W107">
+        <v>650.91618198023468</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>7.2855181219001679</v>
+      </c>
+      <c r="Y107">
+        <v>13.026748387577998</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
